--- a/Assets/Data/Excel/SkillEvent.xlsx
+++ b/Assets/Data/Excel/SkillEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>1|2|2.5</t>
+  </si>
+  <si>
+    <t>BulletReach</t>
   </si>
 </sst>
 </file>
@@ -104,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,14 +122,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,8 +151,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +207,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,60 +230,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,61 +274,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,121 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +468,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +518,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,47 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -570,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1066,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1216,7 +1219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1235,8 +1238,14 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1244,18 +1253,12 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
         <v>24</v>
       </c>
     </row>
